--- a/config/forms/app/case_hospitalization.xlsx
+++ b/config/forms/app/case_hospitalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88CC30B-1AD6-49C8-9202-05A7484A7863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2F49C-BD76-4A7B-8C23-A5CD6356DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6037,18 +6037,6 @@
     <t>case_hospitalization</t>
   </si>
   <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Created On</t>
-  </si>
-  <si>
     <t>today()</t>
   </si>
   <si>
@@ -6088,9 +6076,6 @@
     <t>chl_facility_other</t>
   </si>
   <si>
-    <t>ch_created</t>
-  </si>
-  <si>
     <t>county=${chl_county}</t>
   </si>
   <si>
@@ -6407,6 +6392,21 @@
   </si>
   <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any past or present interactions with health facilities, such as visits, admissions, isolation, or quarantine; including any treatment that was administered or prescribed.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each hospitalization instance&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ch_reported</t>
+  </si>
+  <si>
+    <t>reported_by</t>
+  </si>
+  <si>
+    <t>reported_on</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
   </si>
 </sst>
 </file>
@@ -6541,12 +6541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -6560,6 +6554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -6593,8 +6593,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6613,26 +6613,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
-    <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
-    <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
+    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
+    <cellStyle name="60% - Accent1" xfId="7" builtinId="32"/>
+    <cellStyle name="60% - Accent3" xfId="5" builtinId="40"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{74F09D6D-ED9D-4FE9-9749-390992714CDA}"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{74F09D6D-ED9D-4FE9-9749-390992714CDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6947,9 +6947,9 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7010,17 +7010,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7062,14 +7062,14 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7128,8 +7128,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -7148,17 +7148,17 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7240,14 +7240,14 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7308,14 +7308,14 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7361,14 +7361,14 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="26" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7414,465 +7414,465 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>1940</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:13" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" s="14" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="21" t="s">
         <v>1962</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="21" t="s">
         <v>1979</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>1980</v>
       </c>
-      <c r="E39" s="13" t="b">
+      <c r="E39" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>1995</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>1991</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>1992</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+    <row r="42" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="21" t="s">
         <v>1963</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>1967</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>1966</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:13" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="21" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:13" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="21" t="s">
         <v>1979</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>1968</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15" t="s">
         <v>1969</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>1970</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15" t="s">
         <v>1971</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>1977</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
         <v>1985</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>1976</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="s">
         <v>1986</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>1972</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15" t="s">
         <v>1987</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>1973</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
         <v>1988</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>1989</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15" t="s">
         <v>1993</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>1990</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
         <v>1994</v>
       </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-    </row>
-    <row r="61" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+    </row>
+    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="18" t="s">
         <v>1974</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
+      <c r="C61" s="18" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>1975</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="C62" s="18" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>1957</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
+      <c r="C63" s="18" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>2099</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
+      <c r="B64" s="18" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="B65" s="18" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>1962</v>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
         <v>28</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>30</v>
@@ -7890,26 +7890,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="19" t="s">
+    <row r="69" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>2021</v>
+      <c r="B69" s="18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>2016</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C70" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -7926,7 +7926,7 @@
         <v>1941</v>
       </c>
       <c r="B71" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C71" t="s">
         <v>1942</v>
@@ -7935,10 +7935,10 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="G71" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="H71" t="s">
         <v>1960</v>
@@ -7949,7 +7949,7 @@
         <v>1959</v>
       </c>
       <c r="B72" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C72" t="s">
         <v>1943</v>
@@ -7958,24 +7958,24 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="H72" t="s">
         <v>1960</v>
       </c>
       <c r="L72" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B73" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="C73" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -7989,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C74" t="s">
         <v>53</v>
@@ -7998,7 +7998,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -8006,16 +8006,16 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C75" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8023,20 +8023,20 @@
         <v>39</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="18" t="s">
-        <v>2003</v>
-      </c>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="17" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8045,10 +8045,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C79" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -8059,13 +8059,13 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C80" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="F80" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="J80" t="s">
         <v>1961</v>
@@ -8076,13 +8076,13 @@
         <v>1945</v>
       </c>
       <c r="B81" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C81" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="F81" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -8090,13 +8090,13 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="C82" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="F82" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -8104,27 +8104,27 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C83" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F83" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="J83" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
+    <row r="85" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>2055</v>
+      <c r="B85" s="18" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -8132,10 +8132,10 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="C86" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
@@ -8146,75 +8146,75 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="C87" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="M87" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="B88" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="C88" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="H88" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
+      <c r="B89" s="17" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="17" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F91" s="18" t="s">
-        <v>2048</v>
-      </c>
-      <c r="H91" s="18" t="s">
+      <c r="F91" s="17" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H91" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B92" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="C92" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -8222,49 +8222,49 @@
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="C93" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="F93" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="18" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+      <c r="B94" s="17" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="17" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="18" t="s">
-        <v>2047</v>
-      </c>
-      <c r="H96" s="18" t="s">
+      <c r="F96" s="17" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H96" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B97" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C97" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -8272,117 +8272,117 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F98" t="s">
         <v>2081</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>2082</v>
       </c>
-      <c r="F98" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>2087</v>
-      </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="18" t="s">
-        <v>2104</v>
-      </c>
-      <c r="H101" s="18" t="s">
+      <c r="F101" s="17" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H101" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B102" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="C102" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B103" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="18" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
+      <c r="B104" s="17" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C106" s="18" t="s">
+      <c r="B106" s="17" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H106" s="18" t="s">
+      <c r="H106" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B107" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="C107" t="s">
+        <v>2110</v>
+      </c>
+      <c r="M107" t="s">
         <v>2115</v>
       </c>
-      <c r="M107" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="18" t="s">
+    </row>
+    <row r="108" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B108" s="18" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="18" t="s">
+      <c r="B108" s="17" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B110" s="18" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C110" s="18" t="s">
+      <c r="B110" s="17" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H110" s="18" t="s">
+      <c r="H110" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>1998</v>
+        <v>2118</v>
       </c>
       <c r="C111" t="s">
-        <v>2000</v>
+        <v>2120</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -8408,24 +8408,24 @@
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>1999</v>
+        <v>2119</v>
       </c>
       <c r="C112" t="s">
-        <v>2001</v>
+        <v>2121</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="18" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>2015</v>
+      <c r="B113" s="17" t="s">
+        <v>2117</v>
       </c>
     </row>
   </sheetData>
@@ -8526,7 +8526,7 @@
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B9" t="s">
         <v>1934</v>
@@ -8537,157 +8537,157 @@
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B12" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="C12" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B13" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="C13" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B14" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="C14" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B15" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C15" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B16" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="C16" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B17" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="C17" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B18" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="C18" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B19" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="C19" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B20" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="C20" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B21" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="C21" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B22" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="C22" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B23" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="C23" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="B24" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="C24" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8728,10 +8728,10 @@
         <v>1946</v>
       </c>
       <c r="B29" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="C29" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -8739,10 +8739,10 @@
         <v>1946</v>
       </c>
       <c r="B30" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="C30" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -8750,10 +8750,10 @@
         <v>1946</v>
       </c>
       <c r="B31" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="C31" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -8791,7 +8791,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -8813,68 +8813,68 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="B41" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="C41" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="B42" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="C42" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B43" t="s">
         <v>2107</v>
       </c>
-      <c r="B43" t="s">
-        <v>2112</v>
-      </c>
       <c r="C43" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B45" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="C45" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B46" t="s">
         <v>2040</v>
       </c>
-      <c r="B46" t="s">
-        <v>2045</v>
-      </c>
       <c r="C46" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B47" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="C47" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">

--- a/config/forms/app/case_hospitalization.xlsx
+++ b/config/forms/app/case_hospitalization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2F49C-BD76-4A7B-8C23-A5CD6356DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD4985-20FC-4CDE-B490-F52A7C9EAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6037,376 +6037,376 @@
     <t>case_hospitalization</t>
   </si>
   <si>
+    <t>ch_admission</t>
+  </si>
+  <si>
+    <t>cha_admission</t>
+  </si>
+  <si>
+    <t>cha_admission_ward</t>
+  </si>
+  <si>
+    <t>cha_admission_date</t>
+  </si>
+  <si>
+    <t>Was the patient admitted?</t>
+  </si>
+  <si>
+    <t>${cha_admission} = 'yes'</t>
+  </si>
+  <si>
+    <t>ch_location</t>
+  </si>
+  <si>
+    <t>chl_title</t>
+  </si>
+  <si>
+    <t>chl_county</t>
+  </si>
+  <si>
+    <t>chl_subcounty</t>
+  </si>
+  <si>
+    <t>chl_facility</t>
+  </si>
+  <si>
+    <t>chl_facility_other</t>
+  </si>
+  <si>
+    <t>county=${chl_county}</t>
+  </si>
+  <si>
+    <t>chl_country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>selected(${chl_country}, 'Kenya')</t>
+  </si>
+  <si>
+    <t>select_one select_country</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Facility Location&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>case_hospitalization_title</t>
+  </si>
+  <si>
+    <t>${cha_admission} = 'no'</t>
+  </si>
+  <si>
+    <t>cha_visit_date</t>
+  </si>
+  <si>
+    <t>Date of visit</t>
+  </si>
+  <si>
+    <t>Date of admission</t>
+  </si>
+  <si>
+    <t>Admission ward</t>
+  </si>
+  <si>
+    <t>cha_admission_ward_other</t>
+  </si>
+  <si>
+    <t>Admission ward (other)</t>
+  </si>
+  <si>
+    <t>${cha_admission_ward} = 'other'</t>
+  </si>
+  <si>
+    <t>select_one facility_type</t>
+  </si>
+  <si>
+    <t>chl_type</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>facility_type</t>
+  </si>
+  <si>
+    <t>selected(${chl_type}, 'other')</t>
+  </si>
+  <si>
+    <t>selected(${chl_type}, 'health_facility')</t>
+  </si>
+  <si>
+    <t>select_one cholera_treatment</t>
+  </si>
+  <si>
+    <t>cht_cholera_treatment</t>
+  </si>
+  <si>
+    <t>Cholera Treatment</t>
+  </si>
+  <si>
+    <t>cholera_treatment</t>
+  </si>
+  <si>
+    <t>No dehydrated (Treatment plan A)</t>
+  </si>
+  <si>
+    <t>Mild dehydration (Treatment plan B)</t>
+  </si>
+  <si>
+    <t>Severe dehydration (Treatment plan C)</t>
+  </si>
+  <si>
+    <t>plan_a</t>
+  </si>
+  <si>
+    <t>plan_b</t>
+  </si>
+  <si>
+    <t>plan_c</t>
+  </si>
+  <si>
+    <t>${outbreak_code} = 'cholera'</t>
+  </si>
+  <si>
+    <t>${outbreak_code} = 'dysentery'</t>
+  </si>
+  <si>
+    <t>cht_cholera</t>
+  </si>
+  <si>
+    <t>cht_dysentery</t>
+  </si>
+  <si>
+    <t>cht_dysentery_treatment</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>Was the patient accompanied by anyone else?</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Company&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>cha_company_title</t>
+  </si>
+  <si>
+    <t>${cha_company} = 'yes'</t>
+  </si>
+  <si>
+    <t>cha_company</t>
+  </si>
+  <si>
+    <t>cha_company_name</t>
+  </si>
+  <si>
+    <t>cha_company_relationship</t>
+  </si>
+  <si>
+    <t>select_one case_relationship</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname, middle name, last name</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Grand father</t>
+  </si>
+  <si>
+    <t>Grand mother</t>
+  </si>
+  <si>
+    <t>Sibling</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Co-worker</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>case_relationship</t>
+  </si>
+  <si>
+    <t>cht_dysentery_treatment_other</t>
+  </si>
+  <si>
+    <t>dysentery_treatment</t>
+  </si>
+  <si>
+    <t>cht_cholera_treatment_other</t>
+  </si>
+  <si>
+    <t>Cholera Treatment (other)</t>
+  </si>
+  <si>
+    <t>ADS Treatment (other)</t>
+  </si>
+  <si>
+    <t>ADS Treatment</t>
+  </si>
+  <si>
+    <t>selected(${cht_dysentery_treatment}, 'other')</t>
+  </si>
+  <si>
+    <t>selected(${cht_cholera_treatment}, 'other')</t>
+  </si>
+  <si>
+    <t>cht_covid19</t>
+  </si>
+  <si>
+    <t>covid19_treatment</t>
+  </si>
+  <si>
+    <t>Did the patient receive ventilation?</t>
+  </si>
+  <si>
+    <t>select_one yes_no_unknown</t>
+  </si>
+  <si>
+    <t>cht_covid19_ventilation</t>
+  </si>
+  <si>
+    <t>Did the patient receive extracorporeal membrane oxygenation?</t>
+  </si>
+  <si>
+    <t>cht_covid19_extracorporeal_membrane_oxygenation</t>
+  </si>
+  <si>
+    <t>Isolation (with infection control practice)</t>
+  </si>
+  <si>
+    <t>isolation_icp</t>
+  </si>
+  <si>
+    <t>select_one dysentery_treatment</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>case_id_title</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0"&gt;Outbreak Location: ${outbreak_location_county} &gt; ${outbreak_location_subcounty}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>quarantine</t>
+  </si>
+  <si>
+    <t>Quarantine</t>
+  </si>
+  <si>
+    <t>${outbreak_code} = 'covid19'</t>
+  </si>
+  <si>
+    <t>ch_outcome</t>
+  </si>
+  <si>
+    <t>cho_outcome</t>
+  </si>
+  <si>
+    <t>hospitalization_outcome</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred</t>
+  </si>
+  <si>
+    <t>select_one hospitalization_outcome</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Facility Name (other)</t>
+  </si>
+  <si>
+    <t>Other (e.g. traditional healer)</t>
+  </si>
+  <si>
+    <t>${outbreak_location_county}</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>For this specific hospitalization instance</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any past or present interactions with health facilities, such as visits, admissions, isolation, or quarantine; including any treatment that was administered or prescribed.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each hospitalization instance&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ch_reported</t>
+  </si>
+  <si>
+    <t>reported_by</t>
+  </si>
+  <si>
+    <t>reported_on</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
     <t>today()</t>
-  </si>
-  <si>
-    <t>ch_admission</t>
-  </si>
-  <si>
-    <t>cha_admission</t>
-  </si>
-  <si>
-    <t>cha_admission_ward</t>
-  </si>
-  <si>
-    <t>cha_admission_date</t>
-  </si>
-  <si>
-    <t>Was the patient admitted?</t>
-  </si>
-  <si>
-    <t>${cha_admission} = 'yes'</t>
-  </si>
-  <si>
-    <t>ch_location</t>
-  </si>
-  <si>
-    <t>chl_title</t>
-  </si>
-  <si>
-    <t>chl_county</t>
-  </si>
-  <si>
-    <t>chl_subcounty</t>
-  </si>
-  <si>
-    <t>chl_facility</t>
-  </si>
-  <si>
-    <t>chl_facility_other</t>
-  </si>
-  <si>
-    <t>county=${chl_county}</t>
-  </si>
-  <si>
-    <t>chl_country</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>selected(${chl_country}, 'Kenya')</t>
-  </si>
-  <si>
-    <t>select_one select_country</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Facility Location&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>case_hospitalization_title</t>
-  </si>
-  <si>
-    <t>${cha_admission} = 'no'</t>
-  </si>
-  <si>
-    <t>cha_visit_date</t>
-  </si>
-  <si>
-    <t>Date of visit</t>
-  </si>
-  <si>
-    <t>Date of admission</t>
-  </si>
-  <si>
-    <t>Admission ward</t>
-  </si>
-  <si>
-    <t>cha_admission_ward_other</t>
-  </si>
-  <si>
-    <t>Admission ward (other)</t>
-  </si>
-  <si>
-    <t>${cha_admission_ward} = 'other'</t>
-  </si>
-  <si>
-    <t>select_one facility_type</t>
-  </si>
-  <si>
-    <t>chl_type</t>
-  </si>
-  <si>
-    <t>Facility Type</t>
-  </si>
-  <si>
-    <t>facility_type</t>
-  </si>
-  <si>
-    <t>selected(${chl_type}, 'other')</t>
-  </si>
-  <si>
-    <t>selected(${chl_type}, 'health_facility')</t>
-  </si>
-  <si>
-    <t>select_one cholera_treatment</t>
-  </si>
-  <si>
-    <t>cht_cholera_treatment</t>
-  </si>
-  <si>
-    <t>Cholera Treatment</t>
-  </si>
-  <si>
-    <t>cholera_treatment</t>
-  </si>
-  <si>
-    <t>No dehydrated (Treatment plan A)</t>
-  </si>
-  <si>
-    <t>Mild dehydration (Treatment plan B)</t>
-  </si>
-  <si>
-    <t>Severe dehydration (Treatment plan C)</t>
-  </si>
-  <si>
-    <t>plan_a</t>
-  </si>
-  <si>
-    <t>plan_b</t>
-  </si>
-  <si>
-    <t>plan_c</t>
-  </si>
-  <si>
-    <t>${outbreak_code} = 'cholera'</t>
-  </si>
-  <si>
-    <t>${outbreak_code} = 'dysentery'</t>
-  </si>
-  <si>
-    <t>cht_cholera</t>
-  </si>
-  <si>
-    <t>cht_dysentery</t>
-  </si>
-  <si>
-    <t>cht_dysentery_treatment</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>Isolation</t>
-  </si>
-  <si>
-    <t>Was the patient accompanied by anyone else?</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Company&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>cha_company_title</t>
-  </si>
-  <si>
-    <t>${cha_company} = 'yes'</t>
-  </si>
-  <si>
-    <t>cha_company</t>
-  </si>
-  <si>
-    <t>cha_company_name</t>
-  </si>
-  <si>
-    <t>cha_company_relationship</t>
-  </si>
-  <si>
-    <t>select_one case_relationship</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname, middle name, last name</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Grand father</t>
-  </si>
-  <si>
-    <t>Grand mother</t>
-  </si>
-  <si>
-    <t>Sibling</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>Aunt</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Co-worker</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Spouse</t>
-  </si>
-  <si>
-    <t>case_relationship</t>
-  </si>
-  <si>
-    <t>cht_dysentery_treatment_other</t>
-  </si>
-  <si>
-    <t>dysentery_treatment</t>
-  </si>
-  <si>
-    <t>cht_cholera_treatment_other</t>
-  </si>
-  <si>
-    <t>Cholera Treatment (other)</t>
-  </si>
-  <si>
-    <t>ADS Treatment (other)</t>
-  </si>
-  <si>
-    <t>ADS Treatment</t>
-  </si>
-  <si>
-    <t>selected(${cht_dysentery_treatment}, 'other')</t>
-  </si>
-  <si>
-    <t>selected(${cht_cholera_treatment}, 'other')</t>
-  </si>
-  <si>
-    <t>cht_covid19</t>
-  </si>
-  <si>
-    <t>covid19_treatment</t>
-  </si>
-  <si>
-    <t>Did the patient receive ventilation?</t>
-  </si>
-  <si>
-    <t>select_one yes_no_unknown</t>
-  </si>
-  <si>
-    <t>cht_covid19_ventilation</t>
-  </si>
-  <si>
-    <t>Did the patient receive extracorporeal membrane oxygenation?</t>
-  </si>
-  <si>
-    <t>cht_covid19_extracorporeal_membrane_oxygenation</t>
-  </si>
-  <si>
-    <t>Isolation (with infection control practice)</t>
-  </si>
-  <si>
-    <t>isolation_icp</t>
-  </si>
-  <si>
-    <t>select_one dysentery_treatment</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>case_id_title</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0"&gt;Outbreak Location: ${outbreak_location_county} &gt; ${outbreak_location_subcounty}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>quarantine</t>
-  </si>
-  <si>
-    <t>Quarantine</t>
-  </si>
-  <si>
-    <t>${outbreak_code} = 'covid19'</t>
-  </si>
-  <si>
-    <t>ch_outcome</t>
-  </si>
-  <si>
-    <t>cho_outcome</t>
-  </si>
-  <si>
-    <t>hospitalization_outcome</t>
-  </si>
-  <si>
-    <t>recovered</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred</t>
-  </si>
-  <si>
-    <t>select_one hospitalization_outcome</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Facility Name (other)</t>
-  </si>
-  <si>
-    <t>Other (e.g. traditional healer)</t>
-  </si>
-  <si>
-    <t>${outbreak_location_county}</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>For this specific hospitalization instance</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any past or present interactions with health facilities, such as visits, admissions, isolation, or quarantine; including any treatment that was administered or prescribed.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each hospitalization instance&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>ch_reported</t>
-  </si>
-  <si>
-    <t>reported_by</t>
-  </si>
-  <si>
-    <t>reported_on</t>
-  </si>
-  <si>
-    <t>Reported By</t>
-  </si>
-  <si>
-    <t>Reported On</t>
   </si>
 </sst>
 </file>
@@ -6946,10 +6946,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7821,7 +7821,7 @@
         <v>1974</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7832,7 +7832,7 @@
         <v>1975</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7843,7 +7843,7 @@
         <v>1957</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7851,10 +7851,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>2094</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -7862,10 +7862,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -7881,7 +7881,7 @@
         <v>28</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>30</v>
@@ -7895,21 +7895,21 @@
         <v>46</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B70" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C70" t="s">
         <v>2012</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2013</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -7926,7 +7926,7 @@
         <v>1941</v>
       </c>
       <c r="B71" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C71" t="s">
         <v>1942</v>
@@ -7935,10 +7935,10 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H71" t="s">
         <v>1960</v>
@@ -7949,7 +7949,7 @@
         <v>1959</v>
       </c>
       <c r="B72" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C72" t="s">
         <v>1943</v>
@@ -7958,24 +7958,24 @@
         <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H72" t="s">
         <v>1960</v>
       </c>
       <c r="L72" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B73" t="s">
         <v>2026</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>2027</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2028</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -7989,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C74" t="s">
         <v>53</v>
@@ -7998,7 +7998,7 @@
         <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -8006,16 +8006,16 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C75" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -8023,7 +8023,7 @@
         <v>39</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8031,7 +8031,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>30</v>
@@ -8045,10 +8045,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C79" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -8059,13 +8059,13 @@
         <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C80" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F80" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J80" t="s">
         <v>1961</v>
@@ -8076,13 +8076,13 @@
         <v>1945</v>
       </c>
       <c r="B81" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C81" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F81" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -8090,13 +8090,13 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C82" t="s">
         <v>2023</v>
       </c>
-      <c r="C82" t="s">
+      <c r="F82" t="s">
         <v>2024</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -8104,13 +8104,13 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C83" t="s">
         <v>2019</v>
       </c>
-      <c r="C83" t="s">
-        <v>2020</v>
-      </c>
       <c r="F83" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J83" t="s">
         <v>1961</v>
@@ -8121,10 +8121,10 @@
         <v>46</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -8132,10 +8132,10 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C86" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
@@ -8146,39 +8146,39 @@
         <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C87" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="M87" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C88" t="s">
         <v>2056</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2057</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H88" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8186,7 +8186,7 @@
         <v>39</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="91" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8194,13 +8194,13 @@
         <v>28</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>44</v>
@@ -8208,13 +8208,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B92" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C92" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -8222,13 +8222,13 @@
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C93" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F93" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8236,7 +8236,7 @@
         <v>39</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8244,13 +8244,13 @@
         <v>28</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>44</v>
@@ -8258,13 +8258,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B97" t="s">
         <v>2032</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>2033</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
@@ -8272,13 +8272,13 @@
         <v>45</v>
       </c>
       <c r="B98" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C98" t="s">
         <v>2076</v>
       </c>
-      <c r="C98" t="s">
-        <v>2077</v>
-      </c>
       <c r="F98" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8286,7 +8286,7 @@
         <v>39</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8294,13 +8294,13 @@
         <v>28</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="H101" s="17" t="s">
         <v>44</v>
@@ -8308,24 +8308,24 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B102" t="s">
         <v>2085</v>
       </c>
-      <c r="B102" t="s">
-        <v>2086</v>
-      </c>
       <c r="C102" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B103" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8333,7 +8333,7 @@
         <v>39</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8341,7 +8341,7 @@
         <v>28</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>30</v>
@@ -8352,16 +8352,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C107" t="s">
         <v>2109</v>
       </c>
-      <c r="B107" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2110</v>
-      </c>
       <c r="M107" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8369,7 +8369,7 @@
         <v>39</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8377,7 +8377,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C110" s="17" t="s">
         <v>30</v>
@@ -8391,10 +8391,10 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C111" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -8408,16 +8408,16 @@
         <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C112" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>1998</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8425,7 +8425,7 @@
         <v>39</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
   </sheetData>
@@ -8526,7 +8526,7 @@
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B9" t="s">
         <v>1934</v>
@@ -8537,157 +8537,157 @@
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B12" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C12" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B13" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C13" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B14" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C14" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B17" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C17" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B18" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C18" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B19" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C19" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B20" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C20" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B21" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C21" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B22" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C22" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C23" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B24" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C24" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -8728,10 +8728,10 @@
         <v>1946</v>
       </c>
       <c r="B29" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C29" t="s">
         <v>2097</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -8739,10 +8739,10 @@
         <v>1946</v>
       </c>
       <c r="B30" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C30" t="s">
         <v>2047</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -8750,10 +8750,10 @@
         <v>1946</v>
       </c>
       <c r="B31" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C31" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -8791,7 +8791,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -8813,68 +8813,68 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B41" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C41" t="s">
         <v>2105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B42" t="s">
         <v>2102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>2103</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B43" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C43" t="s">
         <v>2107</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C45" t="s">
         <v>2035</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B46" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C46" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B47" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C47" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
